--- a/static/files/bookingAnalysis.xlsx
+++ b/static/files/bookingAnalysis.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B1000)</f>
@@ -472,426 +472,1476 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oculus Quest II</t>
+          <t>iPhone Lightning Charger</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canon R7 Mirrorless Camera</t>
+          <t>USB-C Laptop/Tablet Charger</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sennheiser MKE 600 XLR 1/8" Shotgun Microphone</t>
+          <t>SD Card &amp; Reader Kit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nintendo Switch Game Console (with games)</t>
+          <t>Sony 24-70mm f/2.8 lens</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Insta360 One X VR Camera</t>
+          <t>Canon R7 Mirrorless Camera</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Canon Speedlite Flash 600EX</t>
+          <t>Video Recording Studio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Canon 5D Mark IV DSLR Camera Body</t>
+          <t>Insta360 One X VR Camera</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Canon 24-70mm f2.8 lens</t>
+          <t>Canon 5D Mark IV DSLR Camera Body</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Canon 16-35 f/2.8 lens</t>
+          <t>HDMI Cable</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zoom H4n Audio Recorder</t>
+          <t>Sony A9 Mirrorless Camera Body</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zoom H2n Audio Recorder</t>
+          <t>Audio-Technica Headphones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zoom F1 Audio Recorder with Shotgun Microphone</t>
+          <t>Heavy-Duty Tripod</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Zhiyun Crane-M3 Stabilizer</t>
+          <t>Canon XA40 4K Video Camcorder</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Zeiss 10x42 Victory SF Binoculars</t>
+          <t>USB-C to HDMI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">X-Rite ColorChecker </t>
+          <t>USB-C Phone Charger</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Video Recording Studio</t>
+          <t>Hechtman Recording Studio Key</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Video Projector</t>
+          <t xml:space="preserve">Insta360 One X3 </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>USB-C Phone/Laptop/Tablet Charger</t>
+          <t xml:space="preserve">Bushman Monopod V2 w/ Tripod Attachment </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thumb Drive </t>
+          <t>Canon 24-70mm f2.8 lens</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sony a7R IV Mirrorless Camera Body</t>
+          <t>Sennheiser MKE 600 XLR 1/8" Shotgun Microphone</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sony a7 SIII Mirrorless Camera Body</t>
+          <t>Panasonic 4K/HD Camcorder</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sony A9 Mirrorless Camera Body</t>
+          <t>Sony a7R IV Mirrorless Camera Body</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sony 85mm f/1.8 lens</t>
+          <t>Smartphone Tripod Mount</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sony 70-200mm f/2.8 lens</t>
+          <t>USB-C Card Reader</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sony 24-70mm f/2.8 lens</t>
+          <t>Canon 70-200 f/2.8 lens</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sony 100-400mm f/4.5-5.6 lens</t>
+          <t>Zoom H2n Audio Recorder</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sigma/Sony 14-24mm f2.8 Lens</t>
+          <t>Canon Speedlite Flash 600EX</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rotolight Neo 2 Lighting Kit</t>
+          <t>Canon 85mm f/1.2L Lens</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Panasonic HD Camcorder</t>
+          <t>Blue Yeti USB Microphone</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Panasonic HC-X1500 4K Video Camera</t>
+          <t>Insta360 Selfie Stick and Tripod</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nikon Z50 Mirrorless Camera Kit</t>
+          <t>Insta360 Selfie Stick</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Insta360 Selfie Stick</t>
+          <t>Canon 16-35 f/2.8 lens</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Collaborative Classroom Speaker 01</t>
+          <t>Video Tripod</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Canon battery</t>
+          <t>Shure SM58 Handheld Microphone</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Canon XA40 4K Video Camcorder</t>
+          <t>Nikon D7500 DSLR Kit</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Canon EF-EOS R Mount Adapter</t>
+          <t>Nikon D7200 DSLR Camera Kit</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Canon 80D DSLR Camera Kit</t>
+          <t>Canon EF-EOS R Mount Adapter</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Canon 50mm f/1.2 lens</t>
+          <t>Canon 80D DSLR Camera Kit</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Canon 100-400mm f/4.5-5.6L IS II USM lens</t>
+          <t>Video Projector</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bushman Monopod V2 w/ Tripod Attachment </t>
+          <t>USB-C to USB-A</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Boom Pole for Shotgun Microphones</t>
+          <t>Sony 70-200mm f/2.8 lens</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Denon Party Speaker</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>USB-C Multiport Adapter</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Studio SD Card Kit</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sony 50mm f/1.8 lens</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sennheiser Shotgun Microphone Windscreen</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Male HDMI to Male USB-C</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JOBY 5K FLEXIBLE TRIPOD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Canon 11-24mm f/4 lens</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Aputure Amaran AL-MX Bicolor LED Mini Light</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thumb Drive </t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sony a7 IV Mirrorless Camera Body</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SmartPhone Lavalier Microphone</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sigma/Sony 35mm f/1.4</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sennheiser G4 Lavalier Microphone Kit</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Panasonic HD Camcorder</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Game Console (with games)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lightning to 3.5mm Headphone Jack Adapter</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Canon M6 Mark II Mirrorless Camera</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Zhiyun Crane-M3 Stabilizer</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sony a7 SIII Mirrorless Camera Body</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sony 85mm f/1.8 lens</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rotolight Neo 2 Lighting Kit</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oculus Quest II</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nikon 24-70mm f/2.8E ED lens</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Insta360 Selfie Stick Extended Edition</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Extension Cords</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Canon 50mm f/1.2 lens</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Canon 100-400mm f/4.5-5.6L IS II USM lens</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Zoom H4n Audio Recorder</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VGA to HDMI</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sigma/Sony 14-24mm f2.8 Lens</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rotolight Color Filters</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nikon Z50 Mirrorless Camera Kit</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DVD Drive (reader/burner, USB-A)</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Canon 24-105mm f/4L lens</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Audio-Technica Boundary Microphone</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Audio Cable (3.5mm)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zeiss 8x42 Victory SF Binoculars</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XLR Cable</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>USB-C to USB-A Cable</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sony 16-35mm f/2.8 lens</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sigma/Canon 35mm f/1.4 lens</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Rodelink Wireless Lavalier Microphone</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nikon Speedlite Flash SB-5000</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nikon D850 Camera Body</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Metabones - Canon EF Lens to Sony E-Mount Adapter</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Magsafe 3 Charger</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fender Party Speaker</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Dracast LED Kit</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Apple Pencil 2nd Generation</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Apple Pencil 1st Generation</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Zoom F1 Audio Recorder with Shotgun Microphone</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Vortex Viper HD 8x42 Binoculars</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sony 200-600mm f/5.6-6.3 Lens</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sony 100-400mm f/4.5-5.6 lens</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sigma/Canon 50mm f/1.4 lens</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Shoulder Mount</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PowerPoint Remote Control</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Nikon 14-24mm f/2.8 ED lens</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Mini HDMI to HDMI Cable</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Micro USB Charger</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Boom Pole for Shotgun Microphones</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1/8" to 1/4" Cable</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>XLR to 3.5mm</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X-Rite ColorChecker </t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>USB-A to USB-C Adapter</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>USB to USB Mini</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sigma/Canon 14mm f/1.8 lens</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sigma/Canon 135mm f/1.8 lens</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Shure PGA58 Microphone</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sennheiser Ambeo VR Microphone</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Scarlett 18i8 USB Audio Interface</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Projector Screen</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Nikon D810 Camera Body</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Nikon 50mm f/1.4G lens</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Nikon 17-35mm f/2.8 lens</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mobile VR Headset</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MagSafe 2 Mac Charger</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>HDMI to USB Capture Card</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>HDMI to Micro HDMI</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DJI Osmo Pocket Video Camera</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Blu-Ray Drive (reader/burner, USB-A)</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Zoom H2n Windscreen</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>XLR to 1/4"</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>White Balance Cards</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Vortex 8x42 Razor Binoculars</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Video Monopod</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>VGA Cable</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sony ECM-44B Lavalier Microphone</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sigma/Nikon 35mm f/1.4 lens</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Shure Wireless Microphone</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Podcast Kit</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Panasonic HC-X1500 4K Video Camera</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikon D750 Camera Body </t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Nikon 85mm f/1.4G lens</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Nikon 70-200mm f/2.8 VR lens</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Megaphone</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MIDI Cable</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Leica 8x32 Ultravid HD-Plus Binoculars</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Large Podcasting Kit</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Laowa 24mm f/14 Lens for Sony Cameras</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Collaborative Classroom Speaker 01</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Canon RF 100-400mm f/5.8</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Canon EF Lens to Canon M Mount Adapter</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Canon 100mm f/2.8 L IS Macro lens</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Atomos Ninja Inferno camera monitor/recorder</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -943,7 +1993,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B8)</f>
@@ -957,7 +2007,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -967,7 +2017,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -977,7 +2027,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +2037,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -997,7 +2047,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +2057,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +2202,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -1162,7 +2212,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1172,7 +2222,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1182,7 +2232,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +2242,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -1202,7 +2252,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1212,7 +2262,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -1222,7 +2272,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1232,7 +2282,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1242,7 +2292,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +2302,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1437,7 +2487,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1447,7 +2497,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +2507,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +2517,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1477,7 +2527,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1487,7 +2537,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1497,7 +2547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1507,7 +2557,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1517,7 +2567,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1527,7 +2577,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1537,7 +2587,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1677,7 +2727,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1687,7 +2737,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1697,7 +2747,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1707,7 +2757,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1717,7 +2767,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1727,7 +2777,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +2787,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1747,7 +2797,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1757,7 +2807,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1767,7 +2817,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1777,7 +2827,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1917,7 +2967,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1927,7 +2977,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1937,7 +2987,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1947,7 +2997,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -1957,7 +3007,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1967,7 +3017,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -1977,7 +3027,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1987,7 +3037,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -1997,7 +3047,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -2007,7 +3057,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2017,7 +3067,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2157,7 +3207,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2167,7 +3217,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -2177,7 +3227,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -2187,7 +3237,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -2197,7 +3247,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -2207,7 +3257,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -2217,7 +3267,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -2227,7 +3277,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -2237,7 +3287,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -2247,7 +3297,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2257,7 +3307,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2397,7 +3447,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -2407,7 +3457,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -2417,7 +3467,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -2427,7 +3477,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -2437,7 +3487,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -2447,7 +3497,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -2457,7 +3507,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -2467,7 +3517,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -2477,7 +3527,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -2487,7 +3537,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2497,7 +3547,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2667,7 +3717,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
@@ -2677,7 +3727,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -2687,7 +3737,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -2697,7 +3747,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -2717,7 +3767,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2897,7 +3947,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2907,7 +3957,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -2917,7 +3967,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -2927,7 +3977,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -2937,7 +3987,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -2947,7 +3997,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -2957,7 +4007,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -3031,7 +4081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3068,7 +4118,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B100)</f>
@@ -3078,31 +4128,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Tripods</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DSLR Bodies Only</t>
+          <t>Chargers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3112,186 +4162,386 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tripods</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Videocameras</t>
+          <t>DSLR Bodies Only</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VR Headsets</t>
+          <t>Microphones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Audio Recorders</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Microphones</t>
+          <t>Adapters and Dongles</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LEDs</t>
+          <t>Videocameras</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Game Consoles</t>
+          <t>Cables</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DSLR Flashes</t>
+          <t>SD Cards</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thumb Drives</t>
+          <t>LEDs</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Projectors and Screens</t>
+          <t>Audio Adapters/Cables</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Headphones and Headsets</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gimbals and Stabilizers</t>
+          <t>Audio Recorders</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Nikon</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Color Cards</t>
+          <t>DSLR Flashes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Classroom Equipment</t>
+          <t>Phone Tripods</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chargers</t>
+          <t>Card Readers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Boompoles</t>
+          <t>Speakers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Projectors and Screens</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Binoculars</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VR Headsets</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pen Tablets</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Thumb Drives</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Game Consoles</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Disk Drives</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gimbals and Stabilizers</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Extension Cables</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Shoulder Mounts</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Powerpoint Remotes</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Color Cards</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boompoles</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VR Microphones</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Podcast Kits</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pocket-Sized Video Camera</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Audio Interfaces</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Monopods</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Megaphones</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Classroom Equipment</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,7 +4556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3337,9 +4587,537 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>jazaray</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
       <c r="D2">
         <f>SUM(B2:B1000)</f>
         <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>calcajer</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>zalan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tarahp</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sophiat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>smullens</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>neshas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mysong</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>madma</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>liodice</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>jtherrm</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>athuln</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zyning</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zoyaa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>yunik98</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>yashveer</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>traoref</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>tonyjan</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>tingdong</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>taragb</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tabs</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>svj</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sscaduto</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>solaeche</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>smerc4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>smarelia</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sam_admin</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>russbell</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rodasm03</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>noyesann</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>norahty</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nithinvr</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>liuyifa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lgoods</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>layb</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kwaddell</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>katveri</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kathyt</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kafran</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>esong1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dsandrs</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>dinazhan</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dennese</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>debbylin</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>claireae</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ccy0105</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>calrutz</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>bha03</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>asophie</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>asessa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>arglass</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>alvinxu</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>aalmar</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +5131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3390,7 +5168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B100)</f>
@@ -3404,7 +5182,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -3414,7 +5192,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -3424,7 +5202,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -3434,27 +5212,197 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>between 4 and 5 days</t>
+          <t>between 3 and 4 days</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>between 4 and 5 days</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>between 5 and 6 days</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>between 6 and 7 days</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>between 7 and 8 days</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>between 8 and 9 days</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>between 9 and 10 days</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>between 10 and 11 days</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>between 11 and 12 days</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>between 12 and 13 days</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>between 13 and 14 days</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>between 14 and 15 days</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>between 15 and 16 days</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>between 16 and 17 days</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>between 18 and 19 days</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>between 20 and 21 days</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>between 21 and 22 days</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>between 29 and 30 days</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>between 40 and 41 days</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +5416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3507,14 +5455,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>smerc4</t>
+          <t>dinazhan</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C2" t="n">
         <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B1000)</f>
@@ -3524,325 +5472,4381 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>caylend</t>
+          <t>smerc4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vkuipers</t>
+          <t>tarahp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chauncyl</t>
+          <t>avazhae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zhongm</t>
+          <t>kwaddell</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>burgessk</t>
+          <t>calcajer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>octaviag</t>
+          <t>svj</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tebas</t>
+          <t>justchu</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pcamacho</t>
+          <t>esong1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>liodice</t>
+          <t>sarah_admin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kerrins</t>
+          <t>luroman</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>yuewen</t>
+          <t>trainow</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xuxinrui</t>
+          <t>alisaber</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>timet</t>
+          <t>arglass</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tarahp</t>
+          <t>adekeye</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>smullens</t>
+          <t>vkuipers</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sdellert</t>
+          <t>jazaray</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>schinta</t>
+          <t>mysong</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sarah_admin</t>
+          <t>madma</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nwibekwe</t>
+          <t>aahuja1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mckeont</t>
+          <t>shoonlee</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mcarr</t>
+          <t>liuyifa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kathyt</t>
+          <t>dennese</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>edwardhm</t>
+          <t>sam_admin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dorp</t>
+          <t>athuln</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>richiuso</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>jczeck</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hlukow</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>emckeown</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zalan</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tingdong</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sscaduto</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>caylend</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>temel</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xwang16</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>onyenezi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>yasmeenh</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sophiat</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>palam</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ebaci</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kellyan3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>crami</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>padraig</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>dorp</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wcbrooks</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rodasm03</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pcamacho</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>norahty</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>koul</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>jtherrm</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>emuriuki</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mcgruder</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kathyt</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hulouis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>debbylin</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>beckadt</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kunzhu</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>atolu</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>danprest</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>adikvh</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ccy0105</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>pacoprio</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mshristi</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mgreeley</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dsandrs</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>daviwil</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>alvinxu</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>hnxiao</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>asessa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>emwilk</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>cyjlee</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>treagle</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>tonyjan</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>tingheng</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>juancas</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>bdolmez</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>yunik98</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>wuorinen</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>toliverd</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>theok</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sioc23</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mhilman</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>madbarn</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kaveen</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hsalas</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>gaojerry</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eedman</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>cbruner</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>alanak</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sescorza</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cgoing</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>abirh</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>yanchen7</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>traoref</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>smullens</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ryanarmb</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mjdugan</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>lamid</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>lalswap</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ikym</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ccheng12</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>alvarez1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>adityajg</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>adamra</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>abhiram</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>zhexi</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>shuyin</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rosieliu</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ridhij</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>razano</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>pedromon</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>nina1120</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mantingh</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>lsimm</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>khadym2</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>fionaj</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ethuynh</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>emessics</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ecmarks</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>zyning</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>vessellm</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>shuyanz</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>niko276</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>lgoods</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>jsallen</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>gundappa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>filipm</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>dschen</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>doanna</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>danik323</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>btausner</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>bobrow</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>as2832</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>andytyhu</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>aandrew</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>zoyaa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>yih222</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>xiaoket</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>taragb</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>tabs</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>skycheng</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>shilkret</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>scocozza</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>schinta</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>sarahki</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>qifanw</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>qianhuim</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>nithinvr</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ngieg</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>neshas</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>mwang387</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mperon</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>mnsinger</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>melodyzy</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>mdoro</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>mayeshaa</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>marcra</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>liodice</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>liliann</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>katveri</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>katawang</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>kafran</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>jlammers</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>jamyers</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>iloudini</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>heca</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>gadaboss</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>dmschiff</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>cabt</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>bhsingha</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>anjanab</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>andie</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>aalmar</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>yuningzh</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>youngsam</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>yanthony</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>xmwang</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>vershbow</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>tfanelli</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sxq</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>solocash</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>sindu</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>sguha21</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>oraliaq</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>nst4h8</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>nsalve</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ngernest</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>muhan</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>mgilfond</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>mfairchi</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>luyin55</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>liujm</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>kuanai</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>khalidam</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>jzwchen</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>juva</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>jamaicaj</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>jakepete</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>helenazh</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>hchen26</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>haylekim</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>gmisgana</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>glahoti</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>gavin1g</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>eyadn</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ekrewson</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>dwurd</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>clairecb</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>chenw410</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>cfin</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>caturn</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>bhagatd</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>bha03</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>bachcaro</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>avaleone</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>aseo</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>annagam</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>afontain</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>adrionaj</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>zhiyah1</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>yashveer</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>yanro</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>xxz</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>willcai</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>wanlingl</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>tumu</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ttopp</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>tstatch</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>tinaxl</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>timet</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ssmannam</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>sp1506</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>solaeche</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>smhoover</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>smarelia</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>slayding</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>shbansal</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>shaashi</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>servon</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>seankey</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>sdellert</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>samln</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>samkirk</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>russbell</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>rubinson</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>rsruth</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>rnojoomi</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>rnerlino</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ricleanu</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ranorman</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>radhika1</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>prichat</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>pnenov03</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>palanc</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ozawan</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ospencer</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ohen</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>noyesann</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>noahtaub</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>nho</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>nathanlw</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>mpb</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>mlm813</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>mirasy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>mingjunx</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>mdukan</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>mcuellar</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>mattdh</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>matsu</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>maitrey</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>luojy</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>layb</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>lanchen</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>krastev</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>knoronha</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>kliem</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>kirstien</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>kevli</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>kenzgf</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>kcait</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>jzubkoff</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>jwgot</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>jnavalta</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>jhxu</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>jaylar</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>jakwari</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>jaeeun</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>itua</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>isabelxz</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>igomez</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>hszsong8</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>hkhughes</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>hayatali</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>haokunhe</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>h3fan</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>gocaro</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>gloriawl</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>georgeje</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>gemmah</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>gculb</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>fdai</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>eshekhar</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ellacho</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ecoh</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>echuu</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>eatienza</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>dotno</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>divita</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>devinma</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>dettmann</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>davidjep</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>darinhar</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>danielnh</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>coatesm</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>claireae</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>cjiaru</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>chujacob</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>chauncyl</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>camaef</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>calrutz</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>bswann</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>bsamahon</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>bhati</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>bergenj</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>avkhera</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>avery2</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>aventh</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>asophie</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>arorasim</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ardaenf</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>apsmalls</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>annabelc</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>alnag</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>alexyim</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>alaoui</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>alanasch</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>adriluna</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>aaliar</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C339" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3857,7 +9861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView zoomScale="300" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,48 +9887,972 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xuxinrui</t>
+          <t>shaashi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Days 2 Hours 26 Minutes </t>
+          <t xml:space="preserve">2 Days 16 Hours 0 Minutes </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>smerc4</t>
+          <t>ranorman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 Days 17 Hours 17 Minutes </t>
+          <t xml:space="preserve">1 Days 13 Hours 43 Minutes </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tarahp</t>
+          <t>traoref</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 Days 0 Hours 33 Minutes </t>
+          <t xml:space="preserve">1 Days 2 Hours 39 Minutes </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>crami</t>
+          <t>athuln</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">1 Days 0 Hours 42 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gadaboss</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 23 Hours 3 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ospencer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 22 Hours 47 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>shilkret</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 20 Hours 34 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>padraig</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 19 Hours 14 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ecmarks</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 16 Hours 45 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>avazhae</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 13 Hours 35 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>katveri</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 6 Hours 55 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sophiat</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 3 Hours 1 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>davidjep</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 54 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mysong</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 51 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mysong</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 51 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dsandrs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 45 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sophiat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 43 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sam_admin</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 39 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>avazhae</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 35 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sam_admin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 28 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nithinvr</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 18 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>alnag</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 16 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>eshekhar</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 2 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dsandrs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 1 Hours 40 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>madbarn</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 1 Hours 28 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>maitrey</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 1 Hours 26 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>gemmah</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 1 Hours 12 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ikym</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 1 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>adekeye</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 59 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nathanlw</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 58 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>juancas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 50 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>avazhae</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 48 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>justchu</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 39 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>justchu</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 38 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sarah_admin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 37 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kliem</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 35 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>padraig</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 31 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>emuriuki</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 27 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>treagle</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 18 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>radhika1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 18 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>pacoprio</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 18 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>madbarn</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 18 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ohen</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 17 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>bhagatd</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 17 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>alvarez1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 16 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>arglass</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 14 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ricleanu</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 13 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>avazhae</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 13 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ikym</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 12 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>khalidam</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 9 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>adekeye</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 9 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wcbrooks</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t xml:space="preserve">0 Days 0 Hours 8 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mnsinger</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 7 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lsimm</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 7 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>juva</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 7 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>iloudini</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 7 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>treagle</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 6 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>shbansal</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 6 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>katawang</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 5 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>emwilk</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 5 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>xxz</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>jakepete</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fdai</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dorp</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>daviwil</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>apsmalls</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>adriluna</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 4 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>avazhae</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 3 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>arglass</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 3 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>alvarez1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 3 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>tingheng</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>tarahp</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>onyenezi</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mcuellar</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>jlammers</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>jlammers</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>igomez</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>gculb</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>emuriuki</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 2 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sarah_admin</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 1 Minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>emuriuki</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Days 0 Hours 1 Minutes </t>
         </is>
       </c>
     </row>
